--- a/biology/Botanique/Poa_alpina/Poa_alpina.xlsx
+++ b/biology/Botanique/Poa_alpina/Poa_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pâturin des Alpes (Poa alpina) est une petite plante herbacée vivace de la famille des Poaceae. Sa présence est circumpolaire en Eurasie et en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pâturin des Alpes est une plante herbacée, vivace. Il atteint une hauteur de 15-30 cm. Les tiges sont droites ou avec des nœuds, sa surface est lisse et nue. Les tiges ont de deux à quatre nœuds, qui sont également dénudés.
 Les feuilles sont vertes ou vert-gris et ont seulement un bord cartilagineux clair très fin. Elles sont plates, et mesurent de 4 à 10 centimètres de long. La ligule est absente ou quasi absente (alors coupée), mesurant alors 3 à 5 millimètres de long et réduite, pas nette.
@@ -545,7 +559,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Poa alpina fait partie des hémicryptophytes.
 La propagation se fait principalement par bulbilles. Elle a lieu quand les tiges s'abaissent, les plantules tombent. Ses crochets lui permettent d'être transportés par les moutons ou le vent.
@@ -577,7 +593,9 @@
           <t>Présence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pâturin des Alpes est présent dans les régions circumpolaires de l'Arctique et des Alpes, en Europe, en Asie occidentale et en Amérique. Dans les Alpes, il va jusqu'à 2600 m d'altitude. Plus bas, on le trouve dans les marais maritimes. L'étagement est surtout subalpin ou alpin.
 En Allemagne, on le trouve de la région du lac de Constance à Landsberg et Augsbourg. En Autriche, on le trouve rarement vers Vienne et dans le Burgenland.
@@ -610,7 +628,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">HLe pâturin des Alpes est une bonne plante fourragère, il peut être cultivé de façon modérée avec du fumier décomposé. Parfois, il sert de plante ornementale dans des jardins rocheux.
 </t>
